--- a/gearbag_outputv1.xlsx
+++ b/gearbag_outputv1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="35">
   <si>
     <t>p atk</t>
   </si>
@@ -47,85 +47,76 @@
     <t>weapon</t>
   </si>
   <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>helmet</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
     <t>spd</t>
   </si>
   <si>
-    <t>helmet</t>
-  </si>
-  <si>
-    <t>chest</t>
+    <t>necklace</t>
+  </si>
+  <si>
+    <t>crit</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>boot</t>
+  </si>
+  <si>
+    <t>uni</t>
+  </si>
+  <si>
+    <t>total:</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>effres</t>
+  </si>
+  <si>
+    <t>SSB</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>Alencia</t>
   </si>
   <si>
     <t>rage</t>
   </si>
   <si>
-    <t>necklace</t>
-  </si>
-  <si>
-    <t>ring</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>boot</t>
-  </si>
-  <si>
-    <t>total:</t>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>crit</t>
-  </si>
-  <si>
-    <t>effres</t>
-  </si>
-  <si>
-    <t>A.Ras</t>
-  </si>
-  <si>
-    <t>-------------------------------------------------------------------------------------------------------------------------------</t>
-  </si>
-  <si>
-    <t>im</t>
-  </si>
-  <si>
-    <t>Sangelica</t>
+    <t>S.Angelica</t>
   </si>
   <si>
     <t>des</t>
   </si>
   <si>
-    <t>uni</t>
-  </si>
-  <si>
     <t>Kayron</t>
   </si>
   <si>
-    <t>SSB</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
     <t>Sigret</t>
   </si>
   <si>
-    <t>Alencia</t>
-  </si>
-  <si>
     <t>Roana</t>
-  </si>
-  <si>
-    <t>BBK</t>
-  </si>
-  <si>
-    <t>C.Dominel</t>
   </si>
 </sst>
 </file>
@@ -170,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -213,34 +204,34 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0</v>
+        <v>33.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
@@ -251,34 +242,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K3" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -286,37 +277,37 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
       <c r="E4" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G4" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -324,37 +315,37 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="D5" t="n">
-        <v>50.0</v>
+        <v>24.0</v>
       </c>
       <c r="E5" t="n">
         <v>4.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
       <c r="G5" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K5" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -362,28 +353,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="C6" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="H6" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -392,7 +383,7 @@
         <v>17</v>
       </c>
       <c r="K6" t="n">
-        <v>14.0</v>
+        <v>2.0</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -400,37 +391,37 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0</v>
+        <v>65.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>46.0</v>
+        <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G7" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -438,48 +429,48 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0</v>
+        <v>148.0</v>
       </c>
       <c r="C8" t="n">
-        <v>31.0</v>
+        <v>45.0</v>
       </c>
       <c r="D8" t="n">
-        <v>130.0</v>
+        <v>129.0</v>
       </c>
       <c r="E8" t="n">
-        <v>21.0</v>
+        <v>44.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>92.0</v>
       </c>
       <c r="G8" t="n">
-        <v>107.0</v>
+        <v>10.0</v>
       </c>
       <c r="H8" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
@@ -488,41 +479,41 @@
         <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
-        <v>1894.0</v>
+        <v>3523.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1260.0</v>
+        <v>1212.0</v>
       </c>
       <c r="D10" t="n">
-        <v>18446.0</v>
+        <v>15053.0</v>
       </c>
       <c r="E10" t="n">
-        <v>233.0</v>
+        <v>124.0</v>
       </c>
       <c r="F10" t="n">
-        <v>36.0</v>
+        <v>71.0</v>
       </c>
       <c r="G10" t="n">
-        <v>150.0</v>
+        <v>242.0</v>
       </c>
       <c r="H10" t="n">
-        <v>57.0</v>
+        <v>18.0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -554,10 +545,10 @@
         <v>0.0</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
@@ -571,31 +562,31 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="D13" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="E13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="n">
         <v>4.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" t="n">
-        <v>17.0</v>
       </c>
       <c r="L13"/>
       <c r="M13"/>
@@ -603,7 +594,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -630,7 +621,7 @@
         <v>0.0</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14" t="n">
         <v>6.0</v>
@@ -641,37 +632,37 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="D15" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="E15" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>70.0</v>
+        <v>4.0</v>
       </c>
       <c r="G15" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="J15" t="s">
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -679,37 +670,37 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="D16" t="n">
         <v>60.0</v>
       </c>
       <c r="E16" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F16" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="G16" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="H16" t="n">
         <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K16" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
@@ -717,37 +708,37 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="C17" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F17" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="G17" t="n">
         <v>45.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
@@ -755,48 +746,48 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>38.0</v>
+        <v>9.0</v>
       </c>
       <c r="C18" t="n">
-        <v>19.0</v>
+        <v>120.0</v>
       </c>
       <c r="D18" t="n">
-        <v>130.0</v>
+        <v>183.0</v>
       </c>
       <c r="E18" t="n">
-        <v>51.0</v>
+        <v>40.0</v>
       </c>
       <c r="F18" t="n">
-        <v>96.0</v>
+        <v>4.0</v>
       </c>
       <c r="G18" t="n">
-        <v>100.0</v>
+        <v>81.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
@@ -805,41 +796,41 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>1232.0</v>
+        <v>1545.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1010.0</v>
+        <v>1665.0</v>
       </c>
       <c r="D20" t="n">
-        <v>10827.0</v>
+        <v>23277.0</v>
       </c>
       <c r="E20" t="n">
-        <v>235.0</v>
+        <v>187.0</v>
       </c>
       <c r="F20" t="n">
-        <v>66.0</v>
+        <v>55.0</v>
       </c>
       <c r="G20" t="n">
-        <v>246.0</v>
+        <v>154.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I20" t="n">
-        <v>28.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -847,31 +838,31 @@
         <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="C22" t="n">
         <v>0.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E22" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="H22" t="n">
         <v>0.0</v>
       </c>
       <c r="I22" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="J22" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K22" t="n">
         <v>12.0</v>
@@ -885,22 +876,22 @@
         <v>12</v>
       </c>
       <c r="B23" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="E23" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="F23" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="H23" t="n">
         <v>0.0</v>
@@ -909,7 +900,7 @@
         <v>6.0</v>
       </c>
       <c r="J23" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K23" t="n">
         <v>16.0</v>
@@ -920,7 +911,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -929,28 +920,28 @@
         <v>0.0</v>
       </c>
       <c r="D24" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="E24" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="F24" t="n">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="H24" t="n">
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K24" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -958,37 +949,37 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>20</v>
-      </c>
       <c r="K25" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -996,37 +987,37 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B26" t="n">
-        <v>65.0</v>
+        <v>0.0</v>
       </c>
       <c r="C26" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="E26" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="F26" t="n">
         <v>0.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="H26" t="n">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
       </c>
       <c r="J26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K26" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -1034,25 +1025,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" t="n">
-        <v>65.0</v>
+        <v>23.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="D27" t="n">
         <v>0.0</v>
       </c>
       <c r="E27" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="H27" t="n">
         <v>0.0</v>
@@ -1061,10 +1052,10 @@
         <v>0.0</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K27" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="L27"/>
       <c r="M27"/>
@@ -1072,48 +1063,48 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B28" t="n">
-        <v>166.0</v>
+        <v>37.0</v>
       </c>
       <c r="C28" t="n">
-        <v>8.0</v>
+        <v>36.0</v>
       </c>
       <c r="D28" t="n">
-        <v>28.0</v>
+        <v>84.0</v>
       </c>
       <c r="E28" t="n">
-        <v>83.0</v>
+        <v>15.0</v>
       </c>
       <c r="F28" t="n">
-        <v>113.0</v>
+        <v>15.0</v>
       </c>
       <c r="G28" t="n">
-        <v>11.0</v>
+        <v>107.0</v>
       </c>
       <c r="H28" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="I28" t="n">
-        <v>40.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
         <v>4</v>
@@ -1122,7 +1113,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -1130,33 +1121,33 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>3618.0</v>
+        <v>1742.0</v>
       </c>
       <c r="C30" t="n">
-        <v>896.0</v>
+        <v>1070.0</v>
       </c>
       <c r="D30" t="n">
-        <v>9600.0</v>
+        <v>9675.0</v>
       </c>
       <c r="E30" t="n">
-        <v>140.0</v>
+        <v>242.0</v>
       </c>
       <c r="F30" t="n">
-        <v>106.0</v>
+        <v>30.0</v>
       </c>
       <c r="G30" t="n">
-        <v>298.0</v>
+        <v>165.0</v>
       </c>
       <c r="H30" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="I30" t="n">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -1164,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="C32" t="n">
         <v>0.0</v>
@@ -1173,10 +1164,10 @@
         <v>0.0</v>
       </c>
       <c r="E32" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F32" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="G32" t="n">
         <v>0.0</v>
@@ -1185,13 +1176,13 @@
         <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K32" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -1202,7 +1193,7 @@
         <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C33" t="n">
         <v>0.0</v>
@@ -1211,25 +1202,25 @@
         <v>0.0</v>
       </c>
       <c r="E33" t="n">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
       <c r="F33" t="n">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
       <c r="G33" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="H33" t="n">
         <v>0.0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="J33" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K33" t="n">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -1237,7 +1228,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -1246,16 +1237,16 @@
         <v>0.0</v>
       </c>
       <c r="D34" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="E34" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="F34" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="G34" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="H34" t="n">
         <v>0.0</v>
@@ -1264,10 +1255,10 @@
         <v>0.0</v>
       </c>
       <c r="J34" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K34" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L34"/>
       <c r="M34"/>
@@ -1275,37 +1266,37 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="F35" t="n">
         <v>65.0</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.0</v>
-      </c>
       <c r="G35" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="H35" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
       </c>
       <c r="J35" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K35" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="L35"/>
       <c r="M35"/>
@@ -1313,7 +1304,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B36" t="n">
         <v>60.0</v>
@@ -1340,7 +1331,7 @@
         <v>0.0</v>
       </c>
       <c r="J36" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K36" t="n">
         <v>7.0</v>
@@ -1351,22 +1342,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" t="n">
-        <v>50.0</v>
+        <v>65.0</v>
       </c>
       <c r="C37" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="E37" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="F37" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="G37" t="n">
         <v>0.0</v>
@@ -1375,13 +1366,13 @@
         <v>0.0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="J37" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K37" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="L37"/>
       <c r="M37"/>
@@ -1389,48 +1380,48 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B38" t="n">
-        <v>200.0</v>
+        <v>172.0</v>
       </c>
       <c r="C38" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="D38" t="n">
-        <v>56.0</v>
+        <v>36.0</v>
       </c>
       <c r="E38" t="n">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="F38" t="n">
-        <v>78.0</v>
+        <v>137.0</v>
       </c>
       <c r="G38" t="n">
-        <v>27.0</v>
+        <v>15.0</v>
       </c>
       <c r="H38" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="I38" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
         <v>4</v>
@@ -1439,41 +1430,41 @@
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" t="n">
-        <v>4484.0</v>
+        <v>3960.0</v>
       </c>
       <c r="C40" t="n">
-        <v>954.0</v>
+        <v>758.0</v>
       </c>
       <c r="D40" t="n">
-        <v>10626.0</v>
+        <v>10027.0</v>
       </c>
       <c r="E40" t="n">
-        <v>141.0</v>
+        <v>144.0</v>
       </c>
       <c r="F40" t="n">
-        <v>83.0</v>
+        <v>95.0</v>
       </c>
       <c r="G40" t="n">
-        <v>228.0</v>
+        <v>287.0</v>
       </c>
       <c r="H40" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="I40" t="n">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
@@ -1481,34 +1472,34 @@
         <v>10</v>
       </c>
       <c r="B42" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="C42" t="n">
         <v>0.0</v>
       </c>
       <c r="D42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" t="n">
         <v>21.0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" t="n">
-        <v>6.0</v>
       </c>
       <c r="L42"/>
       <c r="M42"/>
@@ -1543,10 +1534,10 @@
         <v>0.0</v>
       </c>
       <c r="J43" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K43" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -1554,7 +1545,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
@@ -1566,25 +1557,25 @@
         <v>13.0</v>
       </c>
       <c r="E44" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G44" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="H44" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="I44" t="n">
         <v>0.0</v>
       </c>
       <c r="J44" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K44" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="L44"/>
       <c r="M44"/>
@@ -1592,7 +1583,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45" t="n">
         <v>60.0</v>
@@ -1619,7 +1610,7 @@
         <v>0.0</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K45" t="n">
         <v>21.0</v>
@@ -1630,7 +1621,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B46" t="n">
         <v>0.0</v>
@@ -1657,7 +1648,7 @@
         <v>0.0</v>
       </c>
       <c r="J46" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K46" t="n">
         <v>22.0</v>
@@ -1668,7 +1659,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47" t="n">
         <v>65.0</v>
@@ -1695,7 +1686,7 @@
         <v>6.0</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K47" t="n">
         <v>10.0</v>
@@ -1706,28 +1697,28 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n">
-        <v>132.0</v>
+        <v>125.0</v>
       </c>
       <c r="C48" t="n">
         <v>12.0</v>
       </c>
       <c r="D48" t="n">
-        <v>42.0</v>
+        <v>21.0</v>
       </c>
       <c r="E48" t="n">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
       <c r="F48" t="n">
-        <v>35.0</v>
+        <v>58.0</v>
       </c>
       <c r="G48" t="n">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
       <c r="H48" t="n">
-        <v>65.0</v>
+        <v>67.0</v>
       </c>
       <c r="I48" t="n">
         <v>6.0</v>
@@ -1735,19 +1726,19 @@
     </row>
     <row r="49">
       <c r="B49" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G49" t="s">
         <v>4</v>
@@ -1756,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -1764,25 +1755,25 @@
         <v>33</v>
       </c>
       <c r="B50" t="n">
-        <v>3313.0</v>
+        <v>3123.0</v>
       </c>
       <c r="C50" t="n">
-        <v>1044.0</v>
+        <v>1019.0</v>
       </c>
       <c r="D50" t="n">
-        <v>11205.0</v>
+        <v>9990.0</v>
       </c>
       <c r="E50" t="n">
-        <v>182.0</v>
+        <v>180.0</v>
       </c>
       <c r="F50" t="n">
-        <v>70.0</v>
+        <v>68.0</v>
       </c>
       <c r="G50" t="n">
-        <v>200.0</v>
+        <v>223.0</v>
       </c>
       <c r="H50" t="n">
-        <v>65.0</v>
+        <v>67.0</v>
       </c>
       <c r="I50" t="n">
         <v>6.0</v>
@@ -1790,7 +1781,7 @@
     </row>
     <row r="51">
       <c r="B51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
@@ -1798,22 +1789,22 @@
         <v>10</v>
       </c>
       <c r="B52" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="C52" t="n">
         <v>0.0</v>
       </c>
       <c r="D52" t="n">
-        <v>33.0</v>
+        <v>8.0</v>
       </c>
       <c r="E52" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="F52" t="n">
         <v>0.0</v>
       </c>
       <c r="G52" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H52" t="n">
         <v>0.0</v>
@@ -1822,10 +1813,10 @@
         <v>0.0</v>
       </c>
       <c r="J52" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K52" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="L52"/>
       <c r="M52"/>
@@ -1836,13 +1827,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="C53" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="D53" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="E53" t="n">
         <v>0.0</v>
@@ -1851,16 +1842,16 @@
         <v>0.0</v>
       </c>
       <c r="G53" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="H53" t="n">
         <v>0.0</v>
       </c>
       <c r="I53" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K53" t="n">
         <v>3.0</v>
@@ -1871,25 +1862,25 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
       </c>
       <c r="C54" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="D54" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="E54" t="n">
         <v>0.0</v>
       </c>
       <c r="F54" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H54" t="n">
         <v>0.0</v>
@@ -1898,10 +1889,10 @@
         <v>0.0</v>
       </c>
       <c r="J54" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K54" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="L54"/>
       <c r="M54"/>
@@ -1909,7 +1900,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
@@ -1936,7 +1927,7 @@
         <v>13.0</v>
       </c>
       <c r="J55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K55" t="n">
         <v>4.0</v>
@@ -1947,37 +1938,37 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
       </c>
       <c r="C56" t="n">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="D56" t="n">
         <v>60.0</v>
       </c>
       <c r="E56" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="F56" t="n">
         <v>0.0</v>
       </c>
       <c r="G56" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="H56" t="n">
         <v>0.0</v>
       </c>
       <c r="I56" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="J56" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K56" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="L56"/>
       <c r="M56"/>
@@ -1985,37 +1976,37 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G57" t="n">
         <v>11.0</v>
       </c>
-      <c r="C57" t="n">
+      <c r="H57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I57" t="n">
         <v>20.0</v>
       </c>
-      <c r="D57" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K57" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="L57"/>
       <c r="M57"/>
@@ -2023,48 +2014,48 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B58" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="C58" t="n">
-        <v>115.0</v>
+        <v>78.0</v>
       </c>
       <c r="D58" t="n">
-        <v>237.0</v>
+        <v>208.0</v>
       </c>
       <c r="E58" t="n">
         <v>20.0</v>
       </c>
       <c r="F58" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="G58" t="n">
-        <v>30.0</v>
+        <v>49.0</v>
       </c>
       <c r="H58" t="n">
         <v>0.0</v>
       </c>
       <c r="I58" t="n">
-        <v>32.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
         <v>4</v>
@@ -2073,7 +2064,7 @@
         <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
@@ -2081,984 +2072,33 @@
         <v>34</v>
       </c>
       <c r="B60" t="n">
-        <v>1434.0</v>
+        <v>1027.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1378.0</v>
+        <v>1822.0</v>
       </c>
       <c r="D60" t="n">
-        <v>23416.0</v>
+        <v>22382.0</v>
       </c>
       <c r="E60" t="n">
-        <v>136.0</v>
+        <v>147.0</v>
       </c>
       <c r="F60" t="n">
         <v>35.0</v>
       </c>
       <c r="G60" t="n">
-        <v>161.0</v>
+        <v>156.0</v>
       </c>
       <c r="H60" t="n">
         <v>0.0</v>
       </c>
       <c r="I60" t="n">
-        <v>32.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="J62" t="s">
-        <v>21</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J63" t="s">
-        <v>32</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J65" t="s">
         <v>26</v>
-      </c>
-      <c r="K65" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J66" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="J67" t="s">
-        <v>21</v>
-      </c>
-      <c r="K67" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="C68" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>224.0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>4</v>
-      </c>
-      <c r="H69" t="s">
-        <v>6</v>
-      </c>
-      <c r="I69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1221.0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1702.0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>22641.0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>138.0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>156.0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J72" t="s">
-        <v>26</v>
-      </c>
-      <c r="K72" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J73" t="s">
-        <v>32</v>
-      </c>
-      <c r="K73" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J74" t="s">
-        <v>20</v>
-      </c>
-      <c r="K74" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J75" t="s">
-        <v>20</v>
-      </c>
-      <c r="K75" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J76" t="s">
-        <v>20</v>
-      </c>
-      <c r="K76" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>18</v>
-      </c>
-      <c r="B77" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="J77" t="s">
-        <v>20</v>
-      </c>
-      <c r="K77" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" t="n">
-        <v>165.0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D79" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>4</v>
-      </c>
-      <c r="H79" t="s">
-        <v>6</v>
-      </c>
-      <c r="I79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B80" t="n">
-        <v>3957.0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>737.0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>11494.0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>258.0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J82" t="s">
-        <v>6</v>
-      </c>
-      <c r="K82" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J83" t="s">
-        <v>22</v>
-      </c>
-      <c r="K83" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G84" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J84" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>15</v>
-      </c>
-      <c r="B85" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J85" t="s">
-        <v>22</v>
-      </c>
-      <c r="K85" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>16</v>
-      </c>
-      <c r="B86" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J86" t="s">
-        <v>26</v>
-      </c>
-      <c r="K86" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B87" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G87" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J87" t="s">
-        <v>28</v>
-      </c>
-      <c r="K87" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>19</v>
-      </c>
-      <c r="B88" t="n">
-        <v>152.0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" t="s">
-        <v>20</v>
-      </c>
-      <c r="C89" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" t="s">
-        <v>21</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" t="s">
-        <v>6</v>
-      </c>
-      <c r="I89" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>37</v>
-      </c>
-      <c r="B90" t="n">
-        <v>3506.0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>950.0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>9309.0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>125.0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="G90" t="n">
-        <v>247.0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="B91" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
